--- a/proba.xlsx
+++ b/proba.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molin\Desktop\UOC\TFM\Python_Pandas_CodigoTFM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2011D36A-152D-45D2-AB5D-B388E1399ACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$S$65</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -27,178 +36,178 @@
     <t>ev_ReceivingTimeUTC</t>
   </si>
   <si>
+    <t>PatientRef</t>
+  </si>
+  <si>
+    <t>BedRef</t>
+  </si>
+  <si>
+    <t>dev_ID</t>
+  </si>
+  <si>
+    <t>ev_DeviceName</t>
+  </si>
+  <si>
+    <t>ev_SerialNumber</t>
+  </si>
+  <si>
+    <t>ev_DeviceNumber</t>
+  </si>
+  <si>
+    <t>ev_EventType</t>
+  </si>
+  <si>
+    <t>ev_Status</t>
+  </si>
+  <si>
+    <t>ev_Description</t>
+  </si>
+  <si>
+    <t>ev_DescriptionLocalized</t>
+  </si>
+  <si>
+    <t>par_ID</t>
+  </si>
+  <si>
+    <t>ev_CustomData</t>
+  </si>
+  <si>
+    <t>ev_Code</t>
+  </si>
+  <si>
+    <t>ev_EndEvent</t>
+  </si>
+  <si>
+    <t>ev_PhysicalDeviceNumber</t>
+  </si>
+  <si>
+    <t>BIG_DIPPER</t>
+  </si>
+  <si>
+    <t>00-0B-AB-04-9B-D7-5F-52</t>
+  </si>
+  <si>
+    <t>Sin pulso SpO2</t>
+  </si>
+  <si>
+    <t>30048|1.3.1.30048</t>
+  </si>
+  <si>
+    <t>Alaris CC_G</t>
+  </si>
+  <si>
+    <t>3700-07753</t>
+  </si>
+  <si>
+    <t>levetiracetam - Alarm - Hold - VI: 16,7 ml</t>
+  </si>
+  <si>
+    <t>levetiracetam - Alarma - En espera - Volumen Infundido: 16,7 ml</t>
+  </si>
+  <si>
+    <t>Occlusion</t>
+  </si>
+  <si>
+    <t>OCLUSIÓN</t>
+  </si>
+  <si>
+    <t>SYR 09</t>
+  </si>
+  <si>
+    <t>levetiracetam - Hold - VI: 16,7 ml</t>
+  </si>
+  <si>
+    <t>levetiracetam - En espera - Volumen Infundido: 16,7 ml</t>
+  </si>
+  <si>
+    <t>00-0B-AB-04-9B-D7-63-CC</t>
+  </si>
+  <si>
+    <t>Interferencia IBE</t>
+  </si>
+  <si>
+    <t>30522|1.12.1.30522</t>
+  </si>
+  <si>
+    <t>AGW</t>
+  </si>
+  <si>
+    <t>Pump disconnected Alaris CC_G 3700-07753</t>
+  </si>
+  <si>
+    <t>Bomba desconectada Alaris CC_G 3700-07753</t>
+  </si>
+  <si>
+    <t>Respironics</t>
+  </si>
+  <si>
+    <t>Frecuencia respiratoria alta</t>
+  </si>
+  <si>
+    <t>121|VRPT;49|MISCA</t>
+  </si>
+  <si>
+    <t>00-0B-AB-04-9B-D7-60-06</t>
+  </si>
+  <si>
+    <t>Perfusión baja SpO2</t>
+  </si>
+  <si>
+    <t>30013|1.3.1.30013</t>
+  </si>
+  <si>
+    <t>Búsqueda pulso SpO2</t>
+  </si>
+  <si>
+    <t>30211|1.3.1.30211</t>
+  </si>
+  <si>
+    <t>00-0B-AB-04-9B-D7-63-F1</t>
+  </si>
+  <si>
+    <t>FR alta</t>
+  </si>
+  <si>
+    <t>196652|1.7.1.151578</t>
+  </si>
+  <si>
+    <t>BIS Ground Checking</t>
+  </si>
+  <si>
+    <t>30533|1.12.1.30533</t>
+  </si>
+  <si>
+    <t>00-0B-AB-04-9B-D7-63-EE</t>
+  </si>
+  <si>
+    <t>Manguito PANI suelto</t>
+  </si>
+  <si>
+    <t>30223|1.1.9.30223</t>
+  </si>
+  <si>
+    <t>SpO2 bajo</t>
+  </si>
+  <si>
+    <t>196674|1.3.1.150456</t>
+  </si>
+  <si>
+    <t>3700-01748</t>
+  </si>
+  <si>
+    <t>fisiologico 0,9% - Warning - Infusing - VolumeRate: 5 ml/h - Concentration: 1 ml/ml - VI: 11,2 ml</t>
+  </si>
+  <si>
+    <t>fisiologico 0,9% - Advertencia - Infundiendo - Volumen/Flujo: 5 ml/h - Concentración: 1 ml/ml - Volumen Infundido: 11,2 ml</t>
+  </si>
+  <si>
     <t>ev_EventTime</t>
-  </si>
-  <si>
-    <t>PatientRef</t>
-  </si>
-  <si>
-    <t>BedRef</t>
-  </si>
-  <si>
-    <t>dev_ID</t>
-  </si>
-  <si>
-    <t>ev_DeviceName</t>
-  </si>
-  <si>
-    <t>ev_SerialNumber</t>
-  </si>
-  <si>
-    <t>ev_DeviceNumber</t>
-  </si>
-  <si>
-    <t>ev_EventType</t>
-  </si>
-  <si>
-    <t>ev_Status</t>
-  </si>
-  <si>
-    <t>ev_Description</t>
-  </si>
-  <si>
-    <t>ev_DescriptionLocalized</t>
-  </si>
-  <si>
-    <t>par_ID</t>
-  </si>
-  <si>
-    <t>ev_CustomData</t>
-  </si>
-  <si>
-    <t>ev_Code</t>
-  </si>
-  <si>
-    <t>ev_EndEvent</t>
-  </si>
-  <si>
-    <t>ev_PhysicalDeviceNumber</t>
-  </si>
-  <si>
-    <t>BIG_DIPPER</t>
-  </si>
-  <si>
-    <t>00-0B-AB-04-9B-D7-5F-52</t>
-  </si>
-  <si>
-    <t>Sin pulso SpO2</t>
-  </si>
-  <si>
-    <t>30048|1.3.1.30048</t>
-  </si>
-  <si>
-    <t>Alaris CC_G</t>
-  </si>
-  <si>
-    <t>3700-07753</t>
-  </si>
-  <si>
-    <t>levetiracetam - Alarm - Hold - VI: 16,7 ml</t>
-  </si>
-  <si>
-    <t>levetiracetam - Alarma - En espera - Volumen Infundido: 16,7 ml</t>
-  </si>
-  <si>
-    <t>Occlusion</t>
-  </si>
-  <si>
-    <t>OCLUSIÓN</t>
-  </si>
-  <si>
-    <t>SYR 09</t>
-  </si>
-  <si>
-    <t>levetiracetam - Hold - VI: 16,7 ml</t>
-  </si>
-  <si>
-    <t>levetiracetam - En espera - Volumen Infundido: 16,7 ml</t>
-  </si>
-  <si>
-    <t>00-0B-AB-04-9B-D7-63-CC</t>
-  </si>
-  <si>
-    <t>Interferencia IBE</t>
-  </si>
-  <si>
-    <t>30522|1.12.1.30522</t>
-  </si>
-  <si>
-    <t>AGW</t>
-  </si>
-  <si>
-    <t>Pump disconnected Alaris CC_G 3700-07753</t>
-  </si>
-  <si>
-    <t>Bomba desconectada Alaris CC_G 3700-07753</t>
-  </si>
-  <si>
-    <t>Respironics</t>
-  </si>
-  <si>
-    <t>Frecuencia respiratoria alta</t>
-  </si>
-  <si>
-    <t>121|VRPT;49|MISCA</t>
-  </si>
-  <si>
-    <t>00-0B-AB-04-9B-D7-60-06</t>
-  </si>
-  <si>
-    <t>Perfusión baja SpO2</t>
-  </si>
-  <si>
-    <t>30013|1.3.1.30013</t>
-  </si>
-  <si>
-    <t>Búsqueda pulso SpO2</t>
-  </si>
-  <si>
-    <t>30211|1.3.1.30211</t>
-  </si>
-  <si>
-    <t>00-0B-AB-04-9B-D7-63-F1</t>
-  </si>
-  <si>
-    <t>FR alta</t>
-  </si>
-  <si>
-    <t>196652|1.7.1.151578</t>
-  </si>
-  <si>
-    <t>BIS Ground Checking</t>
-  </si>
-  <si>
-    <t>30533|1.12.1.30533</t>
-  </si>
-  <si>
-    <t>00-0B-AB-04-9B-D7-63-EE</t>
-  </si>
-  <si>
-    <t>Manguito PANI suelto</t>
-  </si>
-  <si>
-    <t>30223|1.1.9.30223</t>
-  </si>
-  <si>
-    <t>SpO2 bajo</t>
-  </si>
-  <si>
-    <t>196674|1.3.1.150456</t>
-  </si>
-  <si>
-    <t>3700-01748</t>
-  </si>
-  <si>
-    <t>fisiologico 0,9% - Warning - Infusing - VolumeRate: 5 ml/h - Concentration: 1 ml/ml - VI: 11,2 ml</t>
-  </si>
-  <si>
-    <t>fisiologico 0,9% - Advertencia - Infundiendo - Volumen/Flujo: 5 ml/h - Concentración: 1 ml/ml - Volumen Infundido: 11,2 ml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,6 +250,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -289,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,9 +334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,16 +578,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S65"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -555,66 +603,66 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>479587</v>
       </c>
       <c r="B2" s="2">
-        <v>43318.406712962962</v>
+        <v>43379.406712962962</v>
       </c>
       <c r="C2" s="2">
         <v>43318.323379629626</v>
       </c>
       <c r="D2" s="2">
-        <v>43318.323379629626</v>
+        <v>43379.406712962962</v>
       </c>
       <c r="E2" s="1">
         <v>1483</v>
@@ -626,10 +674,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1">
@@ -637,24 +685,24 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>479588</v>
       </c>
@@ -665,7 +713,7 @@
         <v>43318.323576388888</v>
       </c>
       <c r="D3" s="2">
-        <v>43318.323576388888</v>
+        <v>43318.406909722224</v>
       </c>
       <c r="E3" s="1">
         <v>1564</v>
@@ -677,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J3" s="1">
         <v>13</v>
@@ -690,10 +738,10 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -709,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>479589</v>
       </c>
@@ -720,7 +768,7 @@
         <v>43318.323576388888</v>
       </c>
       <c r="D4" s="2">
-        <v>43318.323576388888</v>
+        <v>43318.406909722224</v>
       </c>
       <c r="E4" s="1">
         <v>1564</v>
@@ -732,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J4" s="1">
         <v>13</v>
@@ -745,17 +793,17 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -764,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>479591</v>
       </c>
@@ -775,7 +823,7 @@
         <v>43318.32366898148</v>
       </c>
       <c r="D5" s="2">
-        <v>43318.32366898148</v>
+        <v>43318.407002314816</v>
       </c>
       <c r="E5" s="1">
         <v>1564</v>
@@ -787,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J5" s="1">
         <v>13</v>
@@ -800,10 +848,10 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -819,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>479590</v>
       </c>
@@ -830,7 +878,7 @@
         <v>43318.32366898148</v>
       </c>
       <c r="D6" s="2">
-        <v>43318.32366898148</v>
+        <v>43318.407002314816</v>
       </c>
       <c r="E6" s="1">
         <v>1564</v>
@@ -842,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J6" s="1">
         <v>13</v>
@@ -855,17 +903,17 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
@@ -874,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>479592</v>
       </c>
@@ -885,7 +933,7 @@
         <v>43318.323750000003</v>
       </c>
       <c r="D7" s="2">
-        <v>43318.323750000003</v>
+        <v>43318.407083333332</v>
       </c>
       <c r="E7" s="1">
         <v>1483</v>
@@ -897,10 +945,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
@@ -908,24 +956,24 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>479593</v>
       </c>
@@ -936,7 +984,7 @@
         <v>43318.323935185188</v>
       </c>
       <c r="D8" s="2">
-        <v>43318.323935185188</v>
+        <v>43318.407268518517</v>
       </c>
       <c r="E8" s="1">
         <v>1568</v>
@@ -948,10 +996,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1">
@@ -959,24 +1007,24 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>479594</v>
       </c>
@@ -987,7 +1035,7 @@
         <v>43318.324050925927</v>
       </c>
       <c r="D9" s="2">
-        <v>43318.324050925927</v>
+        <v>43318.407384259262</v>
       </c>
       <c r="E9" s="1">
         <v>1568</v>
@@ -999,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1">
@@ -1010,24 +1058,24 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>479595</v>
       </c>
@@ -1038,7 +1086,7 @@
         <v>43318.324178240742</v>
       </c>
       <c r="D10" s="2">
-        <v>43318.324178240742</v>
+        <v>43318.407511574071</v>
       </c>
       <c r="E10" s="1">
         <v>1568</v>
@@ -1050,10 +1098,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
@@ -1061,24 +1109,24 @@
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
       </c>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>479596</v>
       </c>
@@ -1089,7 +1137,7 @@
         <v>43318.324386574073</v>
       </c>
       <c r="D11" s="2">
-        <v>43318.324386574073</v>
+        <v>43318.407719907409</v>
       </c>
       <c r="E11" s="1">
         <v>1568</v>
@@ -1101,10 +1149,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1">
@@ -1112,24 +1160,24 @@
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>479597</v>
       </c>
@@ -1140,7 +1188,7 @@
         <v>43318.324421296296</v>
       </c>
       <c r="D12" s="2">
-        <v>43318.324421296296</v>
+        <v>43318.407754629632</v>
       </c>
       <c r="E12" s="1">
         <v>1568</v>
@@ -1152,10 +1200,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1">
@@ -1163,24 +1211,24 @@
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>479598</v>
       </c>
@@ -1191,7 +1239,7 @@
         <v>43318.324502314812</v>
       </c>
       <c r="D13" s="2">
-        <v>43318.324502314812</v>
+        <v>43318.407835648148</v>
       </c>
       <c r="E13" s="1">
         <v>1564</v>
@@ -1203,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
@@ -1214,10 +1262,10 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
@@ -1233,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>479599</v>
       </c>
@@ -1244,7 +1292,7 @@
         <v>43318.324594907404</v>
       </c>
       <c r="D14" s="2">
-        <v>43318.324594907404</v>
+        <v>43318.40792824074</v>
       </c>
       <c r="E14" s="1">
         <v>1568</v>
@@ -1256,10 +1304,10 @@
         <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1">
@@ -1267,24 +1315,24 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>479600</v>
       </c>
@@ -1295,7 +1343,7 @@
         <v>43318.325057870374</v>
       </c>
       <c r="D15" s="2">
-        <v>43318.325057870374</v>
+        <v>43318.408391203702</v>
       </c>
       <c r="E15" s="1">
         <v>1574</v>
@@ -1307,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1318,24 +1366,24 @@
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>479601</v>
       </c>
@@ -1346,7 +1394,7 @@
         <v>43318.325069444443</v>
       </c>
       <c r="D16" s="2">
-        <v>43318.325069444443</v>
+        <v>43318.408402777779</v>
       </c>
       <c r="E16" s="1">
         <v>1568</v>
@@ -1358,10 +1406,10 @@
         <v>2</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
@@ -1369,35 +1417,35 @@
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>479602</v>
       </c>
       <c r="B17" s="2">
-        <v>43318.408437500002</v>
+        <v>43497.408437500002</v>
       </c>
       <c r="C17" s="2">
         <v>43318.325104166666</v>
       </c>
       <c r="D17" s="2">
-        <v>43318.32508101852</v>
+        <v>43497.408437500002</v>
       </c>
       <c r="E17" s="1">
         <v>1574</v>
@@ -1409,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1420,7 +1468,7 @@
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1">
@@ -1428,13 +1476,13 @@
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>479603</v>
       </c>
@@ -1445,7 +1493,7 @@
         <v>43318.325162037036</v>
       </c>
       <c r="D18" s="2">
-        <v>43318.325162037036</v>
+        <v>43318.408495370371</v>
       </c>
       <c r="E18" s="1">
         <v>1574</v>
@@ -1457,10 +1505,10 @@
         <v>2</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
@@ -1468,23 +1516,23 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>479604</v>
       </c>
@@ -1495,7 +1543,7 @@
         <v>43318.325208333335</v>
       </c>
       <c r="D19" s="2">
-        <v>43318.325208333335</v>
+        <v>43318.408541666664</v>
       </c>
       <c r="E19" s="1">
         <v>1568</v>
@@ -1507,10 +1555,10 @@
         <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1">
@@ -1518,23 +1566,23 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>479605</v>
       </c>
@@ -1545,7 +1593,7 @@
         <v>43318.325613425928</v>
       </c>
       <c r="D20" s="2">
-        <v>43318.325613425928</v>
+        <v>43318.408946759257</v>
       </c>
       <c r="E20" s="1">
         <v>1574</v>
@@ -1557,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1">
@@ -1568,23 +1616,23 @@
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O20" s="1">
         <v>0</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>479606</v>
       </c>
@@ -1595,7 +1643,7 @@
         <v>43318.325636574074</v>
       </c>
       <c r="D21" s="2">
-        <v>43318.325636574074</v>
+        <v>43318.40896990741</v>
       </c>
       <c r="E21" s="1">
         <v>1580</v>
@@ -1607,10 +1655,10 @@
         <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1">
@@ -1618,34 +1666,34 @@
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>479607</v>
       </c>
       <c r="B22" s="2">
-        <v>43318.408993055556</v>
+        <v>43327.408993055556</v>
       </c>
       <c r="C22" s="2">
         <v>43318.325659722221</v>
       </c>
       <c r="D22" s="2">
-        <v>43318.325659722221</v>
+        <v>43327.408993055556</v>
       </c>
       <c r="E22" s="1">
         <v>1568</v>
@@ -1657,10 +1705,10 @@
         <v>2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1">
@@ -1668,23 +1716,23 @@
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>479608</v>
       </c>
@@ -1695,7 +1743,7 @@
         <v>43318.325694444444</v>
       </c>
       <c r="D23" s="2">
-        <v>43318.325694444444</v>
+        <v>43318.40902777778</v>
       </c>
       <c r="E23" s="1">
         <v>1574</v>
@@ -1707,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1">
@@ -1718,23 +1766,23 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>479609</v>
       </c>
@@ -1745,7 +1793,7 @@
         <v>43318.325706018521</v>
       </c>
       <c r="D24" s="2">
-        <v>43318.325671296298</v>
+        <v>43318.409039351849</v>
       </c>
       <c r="E24" s="1">
         <v>1580</v>
@@ -1757,10 +1805,10 @@
         <v>2</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1">
@@ -1768,34 +1816,34 @@
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>479610</v>
       </c>
       <c r="B25" s="2">
-        <v>43318.409236111111</v>
+        <v>43502.409236111111</v>
       </c>
       <c r="C25" s="2">
         <v>43318.325902777775</v>
       </c>
       <c r="D25" s="2">
-        <v>43318.325902777775</v>
+        <v>43502.409236111111</v>
       </c>
       <c r="E25" s="1">
         <v>1483</v>
@@ -1807,10 +1855,10 @@
         <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1">
@@ -1818,23 +1866,23 @@
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>479611</v>
       </c>
@@ -1845,7 +1893,7 @@
         <v>43318.325914351852</v>
       </c>
       <c r="D26" s="2">
-        <v>43318.325914351852</v>
+        <v>43318.409247685187</v>
       </c>
       <c r="E26" s="1">
         <v>1580</v>
@@ -1857,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1">
@@ -1868,23 +1916,23 @@
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>479612</v>
       </c>
@@ -1895,7 +1943,7 @@
         <v>43318.32608796296</v>
       </c>
       <c r="D27" s="2">
-        <v>43318.32607638889</v>
+        <v>43318.409421296295</v>
       </c>
       <c r="E27" s="1">
         <v>1580</v>
@@ -1907,10 +1955,10 @@
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1">
@@ -1918,23 +1966,23 @@
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O27" s="1">
         <v>0</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>479613</v>
       </c>
@@ -1945,7 +1993,7 @@
         <v>43318.326249999998</v>
       </c>
       <c r="D28" s="2">
-        <v>43318.326249999998</v>
+        <v>43318.409583333334</v>
       </c>
       <c r="E28" s="1">
         <v>1568</v>
@@ -1957,10 +2005,10 @@
         <v>2</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1">
@@ -1968,17 +2016,17 @@
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -1995,7 +2043,7 @@
         <v>43318.326249999998</v>
       </c>
       <c r="D29" s="2">
-        <v>43318.326249999998</v>
+        <v>43528.412326388891</v>
       </c>
       <c r="E29" s="1">
         <v>1568</v>
@@ -2007,10 +2055,10 @@
         <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1">
@@ -2018,23 +2066,23 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>479615</v>
       </c>
@@ -2045,7 +2093,7 @@
         <v>43318.326331018521</v>
       </c>
       <c r="D30" s="2">
-        <v>43318.326331018521</v>
+        <v>43318.40966435185</v>
       </c>
       <c r="E30" s="1">
         <v>1568</v>
@@ -2057,10 +2105,10 @@
         <v>2</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1">
@@ -2068,23 +2116,23 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>479616</v>
       </c>
@@ -2095,7 +2143,7 @@
         <v>43318.326365740744</v>
       </c>
       <c r="D31" s="2">
-        <v>43318.326365740744</v>
+        <v>43318.409699074073</v>
       </c>
       <c r="E31" s="1">
         <v>1568</v>
@@ -2107,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1">
@@ -2118,23 +2166,23 @@
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>479617</v>
       </c>
@@ -2145,7 +2193,7 @@
         <v>43318.326377314814</v>
       </c>
       <c r="D32" s="2">
-        <v>43318.326377314814</v>
+        <v>43318.409710648149</v>
       </c>
       <c r="E32" s="1">
         <v>1483</v>
@@ -2157,10 +2205,10 @@
         <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1">
@@ -2168,23 +2216,23 @@
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>479618</v>
       </c>
@@ -2195,7 +2243,7 @@
         <v>43318.326435185183</v>
       </c>
       <c r="D33" s="2">
-        <v>43318.326423611114</v>
+        <v>43318.409768518519</v>
       </c>
       <c r="E33" s="1">
         <v>1586</v>
@@ -2207,10 +2255,10 @@
         <v>2</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1">
@@ -2218,23 +2266,23 @@
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>479619</v>
       </c>
@@ -2245,7 +2293,7 @@
         <v>43318.326550925929</v>
       </c>
       <c r="D34" s="2">
-        <v>43318.326550925929</v>
+        <v>43318.409884259258</v>
       </c>
       <c r="E34" s="1">
         <v>1483</v>
@@ -2257,10 +2305,10 @@
         <v>2</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1">
@@ -2268,23 +2316,23 @@
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>479620</v>
       </c>
@@ -2295,7 +2343,7 @@
         <v>43318.326562499999</v>
       </c>
       <c r="D35" s="2">
-        <v>43318.326562499999</v>
+        <v>43318.409895833334</v>
       </c>
       <c r="E35" s="1">
         <v>1568</v>
@@ -2307,10 +2355,10 @@
         <v>2</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1">
@@ -2318,23 +2366,23 @@
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O35" s="1">
         <v>0</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>479621</v>
       </c>
@@ -2345,7 +2393,7 @@
         <v>43318.32671296296</v>
       </c>
       <c r="D36" s="2">
-        <v>43318.32671296296</v>
+        <v>43318.410046296296</v>
       </c>
       <c r="E36" s="1">
         <v>1586</v>
@@ -2357,10 +2405,10 @@
         <v>2</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1">
@@ -2368,23 +2416,23 @@
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>479622</v>
       </c>
@@ -2395,7 +2443,7 @@
         <v>43318.326770833337</v>
       </c>
       <c r="D37" s="2">
-        <v>43318.326770833337</v>
+        <v>43318.410104166665</v>
       </c>
       <c r="E37" s="1">
         <v>1580</v>
@@ -2407,10 +2455,10 @@
         <v>2</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1">
@@ -2418,17 +2466,17 @@
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -2445,7 +2493,7 @@
         <v>43318.326817129629</v>
       </c>
       <c r="D38" s="2">
-        <v>43318.326782407406</v>
+        <v>43528.412326388891</v>
       </c>
       <c r="E38" s="1">
         <v>1580</v>
@@ -2457,10 +2505,10 @@
         <v>2</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1">
@@ -2468,23 +2516,23 @@
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O38" s="1">
         <v>0</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>479624</v>
       </c>
@@ -2495,7 +2543,7 @@
         <v>43318.326932870368</v>
       </c>
       <c r="D39" s="2">
-        <v>43318.326932870368</v>
+        <v>43318.410266203704</v>
       </c>
       <c r="E39" s="1">
         <v>1568</v>
@@ -2507,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1">
@@ -2518,23 +2566,23 @@
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>479625</v>
       </c>
@@ -2545,7 +2593,7 @@
         <v>43318.327245370368</v>
       </c>
       <c r="D40" s="2">
-        <v>43318.327245370368</v>
+        <v>43318.410578703704</v>
       </c>
       <c r="E40" s="1">
         <v>1580</v>
@@ -2557,10 +2605,10 @@
         <v>2</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1">
@@ -2568,23 +2616,23 @@
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O40" s="1">
         <v>0</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>479626</v>
       </c>
@@ -2595,7 +2643,7 @@
         <v>43318.327303240738</v>
       </c>
       <c r="D41" s="2">
-        <v>43318.327291666668</v>
+        <v>43318.410636574074</v>
       </c>
       <c r="E41" s="1">
         <v>1580</v>
@@ -2607,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1">
@@ -2618,23 +2666,23 @@
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>479627</v>
       </c>
@@ -2645,7 +2693,7 @@
         <v>43318.327337962961</v>
       </c>
       <c r="D42" s="2">
-        <v>43318.327303240738</v>
+        <v>43318.410671296297</v>
       </c>
       <c r="E42" s="1">
         <v>1483</v>
@@ -2657,10 +2705,10 @@
         <v>2</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1">
@@ -2668,23 +2716,23 @@
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>479628</v>
       </c>
@@ -2695,7 +2743,7 @@
         <v>43318.32739583333</v>
       </c>
       <c r="D43" s="2">
-        <v>43318.32739583333</v>
+        <v>43318.410729166666</v>
       </c>
       <c r="E43" s="1">
         <v>1568</v>
@@ -2707,10 +2755,10 @@
         <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1">
@@ -2718,23 +2766,23 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>479629</v>
       </c>
@@ -2745,7 +2793,7 @@
         <v>43318.327476851853</v>
       </c>
       <c r="D44" s="2">
-        <v>43318.327476851853</v>
+        <v>43318.410810185182</v>
       </c>
       <c r="E44" s="1">
         <v>1568</v>
@@ -2757,10 +2805,10 @@
         <v>2</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1">
@@ -2768,23 +2816,23 @@
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>479630</v>
       </c>
@@ -2795,7 +2843,7 @@
         <v>43318.327499999999</v>
       </c>
       <c r="D45" s="2">
-        <v>43318.327499999999</v>
+        <v>43318.410833333335</v>
       </c>
       <c r="E45" s="1">
         <v>1580</v>
@@ -2807,10 +2855,10 @@
         <v>2</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1">
@@ -2818,17 +2866,17 @@
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R45" s="1">
         <v>0</v>
@@ -2845,7 +2893,7 @@
         <v>43318.327523148146</v>
       </c>
       <c r="D46" s="2">
-        <v>43318.327523148146</v>
+        <v>43528.412326388891</v>
       </c>
       <c r="E46" s="1">
         <v>1568</v>
@@ -2857,10 +2905,10 @@
         <v>2</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1">
@@ -2868,23 +2916,23 @@
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O46" s="1">
         <v>0</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>479632</v>
       </c>
@@ -2895,7 +2943,7 @@
         <v>43318.327546296299</v>
       </c>
       <c r="D47" s="2">
-        <v>43318.327534722222</v>
+        <v>43318.410879629628</v>
       </c>
       <c r="E47" s="1">
         <v>1580</v>
@@ -2907,10 +2955,10 @@
         <v>2</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1">
@@ -2918,23 +2966,23 @@
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>479633</v>
       </c>
@@ -2945,7 +2993,7 @@
         <v>43318.327743055554</v>
       </c>
       <c r="D48" s="2">
-        <v>43318.327743055554</v>
+        <v>43318.411076388889</v>
       </c>
       <c r="E48" s="1">
         <v>1483</v>
@@ -2957,10 +3005,10 @@
         <v>2</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1">
@@ -2968,23 +3016,23 @@
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>479634</v>
       </c>
@@ -2995,7 +3043,7 @@
         <v>43318.327766203707</v>
       </c>
       <c r="D49" s="2">
-        <v>43318.327766203707</v>
+        <v>43318.411099537036</v>
       </c>
       <c r="E49" s="1">
         <v>1580</v>
@@ -3007,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1">
@@ -3018,17 +3066,17 @@
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O49" s="1">
         <v>0</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -3045,7 +3093,7 @@
         <v>43318.327789351853</v>
       </c>
       <c r="D50" s="2">
-        <v>43318.327777777777</v>
+        <v>43530.411122685182</v>
       </c>
       <c r="E50" s="1">
         <v>1483</v>
@@ -3057,10 +3105,10 @@
         <v>2</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1">
@@ -3068,23 +3116,23 @@
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>479636</v>
       </c>
@@ -3095,7 +3143,7 @@
         <v>43318.327789351853</v>
       </c>
       <c r="D51" s="2">
-        <v>43318.327789351853</v>
+        <v>43318.411122685182</v>
       </c>
       <c r="E51" s="1">
         <v>1568</v>
@@ -3107,10 +3155,10 @@
         <v>2</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1">
@@ -3118,23 +3166,23 @@
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R51" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>479637</v>
       </c>
@@ -3145,7 +3193,7 @@
         <v>43318.327951388892</v>
       </c>
       <c r="D52" s="2">
-        <v>43318.327951388892</v>
+        <v>43318.41128472222</v>
       </c>
       <c r="E52" s="1">
         <v>1568</v>
@@ -3157,10 +3205,10 @@
         <v>2</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1">
@@ -3168,23 +3216,23 @@
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O52" s="1">
         <v>0</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>479638</v>
       </c>
@@ -3195,7 +3243,7 @@
         <v>43318.328240740739</v>
       </c>
       <c r="D53" s="2">
-        <v>43318.328240740739</v>
+        <v>43318.411574074074</v>
       </c>
       <c r="E53" s="1">
         <v>1568</v>
@@ -3207,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1">
@@ -3218,23 +3266,23 @@
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O53" s="1">
         <v>0</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R53" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>479639</v>
       </c>
@@ -3245,7 +3293,7 @@
         <v>43318.328287037039</v>
       </c>
       <c r="D54" s="2">
-        <v>43318.328287037039</v>
+        <v>43318.411620370367</v>
       </c>
       <c r="E54" s="1">
         <v>1568</v>
@@ -3257,10 +3305,10 @@
         <v>2</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1">
@@ -3268,17 +3316,17 @@
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O54" s="1">
         <v>0</v>
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R54" s="1">
         <v>0</v>
@@ -3295,7 +3343,7 @@
         <v>43318.328344907408</v>
       </c>
       <c r="D55" s="2">
-        <v>43318.328310185185</v>
+        <v>43528.412326388891</v>
       </c>
       <c r="E55" s="1">
         <v>1580</v>
@@ -3307,10 +3355,10 @@
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1">
@@ -3318,23 +3366,23 @@
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O55" s="1">
         <v>0</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>479641</v>
       </c>
@@ -3345,7 +3393,7 @@
         <v>43318.328668981485</v>
       </c>
       <c r="D56" s="2">
-        <v>43318.328668981485</v>
+        <v>43318.412002314813</v>
       </c>
       <c r="E56" s="1">
         <v>1568</v>
@@ -3357,10 +3405,10 @@
         <v>2</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1">
@@ -3368,23 +3416,23 @@
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O56" s="1">
         <v>0</v>
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>479642</v>
       </c>
@@ -3395,7 +3443,7 @@
         <v>43318.328831018516</v>
       </c>
       <c r="D57" s="2">
-        <v>43318.328831018516</v>
+        <v>43318.412164351852</v>
       </c>
       <c r="E57" s="1">
         <v>1568</v>
@@ -3407,10 +3455,10 @@
         <v>2</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1">
@@ -3418,23 +3466,23 @@
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O57" s="1">
         <v>0</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>479643</v>
       </c>
@@ -3445,7 +3493,7 @@
         <v>43318.328888888886</v>
       </c>
       <c r="D58" s="2">
-        <v>43318.328888888886</v>
+        <v>43318.412222222221</v>
       </c>
       <c r="E58" s="1">
         <v>1568</v>
@@ -3457,10 +3505,10 @@
         <v>2</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1">
@@ -3468,17 +3516,17 @@
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O58" s="1">
         <v>0</v>
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -3495,7 +3543,7 @@
         <v>43318.328993055555</v>
       </c>
       <c r="D59" s="2">
-        <v>43318.328993055555</v>
+        <v>43528.412326388891</v>
       </c>
       <c r="E59" s="1">
         <v>1568</v>
@@ -3507,10 +3555,10 @@
         <v>2</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1">
@@ -3518,34 +3566,34 @@
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O59" s="1">
         <v>0</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>479645</v>
       </c>
       <c r="B60" s="2">
-        <v>43318.412592592591</v>
+        <v>43446.412592592591</v>
       </c>
       <c r="C60" s="2">
         <v>43318.329259259262</v>
       </c>
       <c r="D60" s="2">
-        <v>43318.329259259262</v>
+        <v>43446.412592592591</v>
       </c>
       <c r="E60" s="1">
         <v>1568</v>
@@ -3557,10 +3605,10 @@
         <v>2</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1">
@@ -3568,23 +3616,23 @@
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O60" s="1">
         <v>0</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>479646</v>
       </c>
@@ -3595,7 +3643,7 @@
         <v>43318.329270833332</v>
       </c>
       <c r="D61" s="2">
-        <v>43318.329270833332</v>
+        <v>43318.412604166668</v>
       </c>
       <c r="E61" s="1">
         <v>1568</v>
@@ -3607,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1">
@@ -3618,23 +3666,23 @@
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O61" s="1">
         <v>0</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>479647</v>
       </c>
@@ -3645,7 +3693,7 @@
         <v>43318.329409722224</v>
       </c>
       <c r="D62" s="2">
-        <v>43318.329409722224</v>
+        <v>43318.412743055553</v>
       </c>
       <c r="E62" s="1">
         <v>1568</v>
@@ -3657,10 +3705,10 @@
         <v>2</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1">
@@ -3668,23 +3716,23 @@
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O62" s="1">
         <v>0</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>479648</v>
       </c>
@@ -3695,7 +3743,7 @@
         <v>43318.329444444447</v>
       </c>
       <c r="D63" s="2">
-        <v>43318.329444444447</v>
+        <v>43318.412777777776</v>
       </c>
       <c r="E63" s="1">
         <v>1568</v>
@@ -3707,10 +3755,10 @@
         <v>2</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1">
@@ -3718,23 +3766,23 @@
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O63" s="1">
         <v>0</v>
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>479649</v>
       </c>
@@ -3745,7 +3793,7 @@
         <v>43318.329618055555</v>
       </c>
       <c r="D64" s="2">
-        <v>43318.329618055555</v>
+        <v>43318.412951388891</v>
       </c>
       <c r="E64" s="1">
         <v>1568</v>
@@ -3757,10 +3805,10 @@
         <v>2</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1">
@@ -3768,34 +3816,34 @@
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O64" s="1">
         <v>0</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R64" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>479650</v>
       </c>
       <c r="B65" s="2">
-        <v>43318.413182870368</v>
+        <v>43477.413182870368</v>
       </c>
       <c r="C65" s="2">
         <v>43318.32984953704</v>
       </c>
       <c r="D65" s="2">
-        <v>43318.32984953704</v>
+        <v>43477.413182870368</v>
       </c>
       <c r="E65" s="1">
         <v>1437</v>
@@ -3807,10 +3855,10 @@
         <v>1</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J65" s="1">
         <v>6</v>
@@ -3820,10 +3868,10 @@
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="O65" s="1">
         <v>0</v>
@@ -3840,12 +3888,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S65" xr:uid="{AF0BF636-7B9E-4AF9-8A56-E916333F7C3D}">
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="2018" month="3" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3857,7 +3912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
